--- a/Brian Vargas.xlsx
+++ b/Brian Vargas.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan's PC\Documents\tmp\FeedbackExamen1ISC105\FeedBacksManuelCorregido\FeedBacks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA31F47-E94C-450C-93D6-098DE0D79013}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="3930" yWindow="3645" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,8 +65,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,11 +120,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -152,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,9 +206,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,6 +258,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,19 +451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>100</v>
       </c>
@@ -439,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>80</v>
@@ -457,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>80</v>
@@ -475,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>85</v>
@@ -493,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>88</v>
@@ -511,10 +569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -539,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -558,25 +616,25 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <f>(B8+C8+D8+E8+F8)+B9</f>
-        <v>49.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <f>(B8+C8+D8+E8+F8)+(B9*100/20)</f>
+        <v>63.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
     </row>
   </sheetData>
@@ -586,24 +644,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
